--- a/SUNMark/wwwroot/openingstockpipe.xlsx
+++ b/SUNMark/wwwroot/openingstockpipe.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="17175" windowHeight="9225"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>INWARD DATE</t>
   </si>
@@ -61,13 +61,28 @@
   </si>
   <si>
     <t>MEMO NO</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>SCH</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>PROCESS DONE</t>
+  </si>
+  <si>
+    <t>NEXT PROCESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,11 +136,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +190,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -172,6 +201,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -250,6 +284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -284,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -482,9 +518,11 @@
     <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,6 +567,21 @@
       </c>
       <c r="O1" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -537,24 +590,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
